--- a/doc/scrum_v03_21012016.xlsx
+++ b/doc/scrum_v03_21012016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\Semester_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="16065" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="16065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="165">
   <si>
     <t>ID</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>Not needed, done with SOAP Model</t>
+  </si>
+  <si>
+    <t>Compendium Model</t>
   </si>
 </sst>
 </file>
@@ -596,10 +599,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -608,37 +611,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -656,36 +629,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2102,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,7 +2921,7 @@
         <v>5</v>
       </c>
       <c r="R23" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -3191,7 +3134,7 @@
         <v>1.5</v>
       </c>
       <c r="R30" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -3202,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>86</v>
@@ -3227,7 +3170,7 @@
         <v>0.5</v>
       </c>
       <c r="R31" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -3266,7 +3209,7 @@
         <v>1.5</v>
       </c>
       <c r="R32" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
@@ -3305,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="R33" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3428,7 +3371,7 @@
         <v>3.5</v>
       </c>
       <c r="R36" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
@@ -3539,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="R39" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -3611,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -3639,12 +3582,15 @@
       <c r="I42">
         <v>2</v>
       </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -3708,15 +3654,15 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
       <c r="Q44">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3747,13 +3693,13 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
       <c r="Q45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3820,15 +3766,15 @@
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
       <c r="Q47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3859,13 +3805,13 @@
       <c r="I48">
         <v>0.25</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
-      <c r="P48" s="8"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
       <c r="Q48">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3932,15 +3878,15 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
       <c r="Q50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3971,13 +3917,13 @@
       <c r="I51">
         <v>0.25</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
       <c r="Q51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4044,15 +3990,15 @@
       <c r="I53">
         <v>2</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
       <c r="Q53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4083,13 +4029,13 @@
       <c r="I54">
         <v>0.5</v>
       </c>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
       <c r="Q54">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4156,15 +4102,15 @@
       <c r="I56">
         <v>2</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
       <c r="Q56">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4195,13 +4141,13 @@
       <c r="I57">
         <v>0.25</v>
       </c>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
       <c r="Q57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4623,15 +4569,15 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="9"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
       <c r="Q68">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4662,13 +4608,13 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="9"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
       <c r="Q69">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4699,13 +4645,13 @@
       <c r="I70">
         <v>2</v>
       </c>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="9"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
       <c r="Q70">
         <f t="shared" ref="Q70:Q80" si="1">SUM(K70:P70)</f>
         <v>0</v>
@@ -4736,13 +4682,13 @@
       <c r="I71">
         <v>0.25</v>
       </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="9"/>
-      <c r="O71" s="9"/>
-      <c r="P71" s="9"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
       <c r="Q71">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4773,13 +4719,13 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="9"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="9"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
       <c r="Q72">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4810,13 +4756,13 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="9"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="9"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
       <c r="Q73">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4847,13 +4793,13 @@
       <c r="I74">
         <v>2</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
       <c r="Q74">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4884,13 +4830,13 @@
       <c r="I75">
         <v>0.25</v>
       </c>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="9"/>
-      <c r="O75" s="9"/>
-      <c r="P75" s="9"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
       <c r="Q75">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5017,9 +4963,12 @@
       <c r="L78">
         <v>2</v>
       </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
       <c r="Q78">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R78" t="s">
         <v>101</v>
@@ -5058,7 +5007,7 @@
         <v>3.5</v>
       </c>
       <c r="R79" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -5116,7 +5065,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="2"/>
-        <v>47.35</v>
+        <v>51.35</v>
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
@@ -5132,7 +5081,7 @@
       </c>
       <c r="Q83">
         <f t="shared" si="2"/>
-        <v>103.05</v>
+        <v>107.05</v>
       </c>
     </row>
     <row r="84" spans="3:17" x14ac:dyDescent="0.25">
@@ -5152,16 +5101,16 @@
     <mergeCell ref="J58:P59"/>
   </mergeCells>
   <conditionalFormatting sqref="R2:R80">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"""Waiting"""</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Waiting">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Running">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Running">
       <formula>NOT(ISERROR(SEARCH("Running",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5176,10 +5125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5247,8 +5196,11 @@
       </c>
       <c r="D4">
         <f>D3-SUM('Sprint Backlog'!Q79,'Sprint Backlog'!Q77,'Sprint Backlog'!Q76,'Sprint Backlog'!Q43,'Sprint Backlog'!Q44,'Sprint Backlog'!Q30:Q42,'Sprint Backlog'!Q16:Q24,)</f>
-        <v>95.55</v>
-      </c>
+        <v>94.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/scrum_v03_21012016.xlsx
+++ b/doc/scrum_v03_21012016.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="16065" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27852" windowHeight="16068" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -528,6 +528,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -577,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -598,6 +601,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -958,13 +962,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="3" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -972,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -980,7 +984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -988,7 +992,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1034,24 +1038,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1080,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1138,7 +1142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1210,7 +1214,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1254,7 +1258,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1300,7 +1304,7 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1344,7 +1348,7 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1388,7 +1392,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1432,7 +1436,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1476,7 +1480,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1519,7 +1523,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1562,7 +1566,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1605,7 +1609,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1648,7 +1652,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1691,7 +1695,7 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1734,7 +1738,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
     </row>
-    <row r="18" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1776,7 +1780,7 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1819,7 +1823,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1863,7 +1867,7 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1907,7 +1911,7 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1951,7 +1955,7 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="7"/>
     </row>
-    <row r="23" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1994,7 +1998,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2045,27 +2049,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N38" sqref="N38:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="7.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="16" width="9.109375" customWidth="1"/>
+    <col min="17" max="17" width="7.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.1000000000000001</v>
       </c>
@@ -2146,11 +2151,14 @@
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>0.2</v>
+      </c>
       <c r="M2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1.2</v>
       </c>
@@ -2175,11 +2183,14 @@
       <c r="I3">
         <v>2</v>
       </c>
+      <c r="K3">
+        <v>0.2</v>
+      </c>
       <c r="M3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.3</v>
       </c>
@@ -2204,11 +2215,14 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
       <c r="M4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.4</v>
       </c>
@@ -2233,11 +2247,14 @@
       <c r="I5">
         <v>10</v>
       </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
       <c r="M5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.1</v>
       </c>
@@ -2263,20 +2280,20 @@
         <v>4</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="Q6">
         <f t="shared" ref="Q6:Q69" si="0">SUM(K6:P6)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -2302,20 +2319,20 @@
         <v>2</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="Q7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -2340,21 +2357,24 @@
       <c r="I8">
         <v>4</v>
       </c>
+      <c r="K8">
+        <v>0.2</v>
+      </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
         <v>2</v>
       </c>
       <c r="Q8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="R8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.4</v>
       </c>
@@ -2380,23 +2400,23 @@
         <v>4</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="Q9">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5</v>
       </c>
@@ -2432,7 +2452,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.1</v>
       </c>
@@ -2474,7 +2494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.2</v>
       </c>
@@ -2516,7 +2536,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.3</v>
       </c>
@@ -2558,7 +2578,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.4</v>
       </c>
@@ -2600,7 +2620,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.5</v>
       </c>
@@ -2636,7 +2656,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.0999999999999996</v>
       </c>
@@ -2662,20 +2682,20 @@
         <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.2</v>
       </c>
@@ -2708,7 +2728,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4.3</v>
       </c>
@@ -2733,15 +2753,21 @@
       <c r="I18">
         <v>2</v>
       </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
       <c r="Q18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4.4000000000000004</v>
       </c>
@@ -2777,7 +2803,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5.0999999999999996</v>
       </c>
@@ -2805,15 +2831,18 @@
       <c r="M20">
         <v>0.5</v>
       </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
       <c r="Q20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>5.2</v>
       </c>
@@ -2849,7 +2878,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5.3</v>
       </c>
@@ -2877,15 +2906,18 @@
       <c r="M22">
         <v>2</v>
       </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
       <c r="Q22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>5.4</v>
       </c>
@@ -2924,7 +2956,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>5.5</v>
       </c>
@@ -2960,7 +2992,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>6.1</v>
       </c>
@@ -2982,12 +3014,18 @@
       <c r="G25" t="s">
         <v>115</v>
       </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
       <c r="Q25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>6.2</v>
       </c>
@@ -3014,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6.3</v>
       </c>
@@ -3036,12 +3074,18 @@
       <c r="G27" t="s">
         <v>78</v>
       </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
       <c r="Q27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>6.4</v>
       </c>
@@ -3063,12 +3107,18 @@
       <c r="G28" t="s">
         <v>78</v>
       </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
       <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>6.5</v>
       </c>
@@ -3095,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.1</v>
       </c>
@@ -3120,7 +3170,7 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="8">
         <v>0.5</v>
       </c>
       <c r="L30">
@@ -3129,15 +3179,18 @@
       <c r="M30">
         <v>0.5</v>
       </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
       <c r="Q30">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="R30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.2</v>
       </c>
@@ -3165,15 +3218,18 @@
       <c r="M31">
         <v>0.5</v>
       </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
       <c r="Q31">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7.3</v>
       </c>
@@ -3201,18 +3257,21 @@
       <c r="L32">
         <v>0.5</v>
       </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
       <c r="O32">
         <v>1</v>
       </c>
       <c r="Q32">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="R32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7.4</v>
       </c>
@@ -3243,15 +3302,18 @@
       <c r="M33">
         <v>0.5</v>
       </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
       <c r="Q33">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="R33" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7.5</v>
       </c>
@@ -3287,7 +3349,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8.1</v>
       </c>
@@ -3332,7 +3394,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8.1999999999999993</v>
       </c>
@@ -3366,15 +3428,18 @@
       <c r="M36">
         <v>1.5</v>
       </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
       <c r="Q36">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="R36" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8.3000000000000007</v>
       </c>
@@ -3410,7 +3475,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9.1</v>
       </c>
@@ -3449,7 +3514,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>9.1999999999999993</v>
       </c>
@@ -3485,7 +3550,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.3000000000000007</v>
       </c>
@@ -3521,7 +3586,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10.1</v>
       </c>
@@ -3547,17 +3612,17 @@
         <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10.199999999999999</v>
       </c>
@@ -3585,15 +3650,18 @@
       <c r="M42">
         <v>1</v>
       </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
       <c r="Q42">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10.3</v>
       </c>
@@ -3629,7 +3697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>11.1</v>
       </c>
@@ -3654,21 +3722,21 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
       <c r="Q44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>11.2</v>
       </c>
@@ -3693,19 +3761,19 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
       <c r="Q45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>11.3</v>
       </c>
@@ -3741,7 +3809,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>11.4</v>
       </c>
@@ -3766,21 +3834,21 @@
       <c r="I47">
         <v>2</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
       <c r="Q47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>11.5</v>
       </c>
@@ -3805,19 +3873,19 @@
       <c r="I48">
         <v>0.25</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
       <c r="Q48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>12.1</v>
       </c>
@@ -3843,17 +3911,17 @@
         <v>1</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>12.2</v>
       </c>
@@ -3878,21 +3946,21 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
       <c r="Q50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>12.3</v>
       </c>
@@ -3917,19 +3985,19 @@
       <c r="I51">
         <v>0.25</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
       <c r="Q51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>13.1</v>
       </c>
@@ -3955,17 +4023,17 @@
         <v>0.5</v>
       </c>
       <c r="O52">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q52">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="R52" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>13.2</v>
       </c>
@@ -3990,21 +4058,21 @@
       <c r="I53">
         <v>2</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
       <c r="Q53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>13.3</v>
       </c>
@@ -4029,19 +4097,19 @@
       <c r="I54">
         <v>0.5</v>
       </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
       <c r="Q54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>14.1</v>
       </c>
@@ -4066,18 +4134,21 @@
       <c r="I55">
         <v>1</v>
       </c>
+      <c r="L55">
+        <v>0.2</v>
+      </c>
       <c r="O55">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q55">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R55" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>14.2</v>
       </c>
@@ -4102,21 +4173,21 @@
       <c r="I56">
         <v>2</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="9"/>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
       <c r="Q56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>14.3</v>
       </c>
@@ -4141,19 +4212,19 @@
       <c r="I57">
         <v>0.25</v>
       </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="9"/>
-      <c r="O57" s="9"/>
-      <c r="P57" s="9"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
       <c r="Q57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>15.1</v>
       </c>
@@ -4178,15 +4249,15 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58" s="10" t="s">
+      <c r="J58" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
       <c r="Q58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4195,7 +4266,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>15.2</v>
       </c>
@@ -4220,13 +4291,13 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
       <c r="Q59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4235,7 +4306,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>15.3</v>
       </c>
@@ -4260,21 +4331,24 @@
       <c r="I60">
         <v>1</v>
       </c>
+      <c r="K60">
+        <v>0.2</v>
+      </c>
       <c r="M60">
         <v>0.5</v>
       </c>
       <c r="O60">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="Q60">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="R60" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>15.4</v>
       </c>
@@ -4313,7 +4387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>15.5</v>
       </c>
@@ -4352,7 +4426,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>16.100000000000001</v>
       </c>
@@ -4391,7 +4465,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>16.2</v>
       </c>
@@ -4422,15 +4496,18 @@
       <c r="O64">
         <v>0.5</v>
       </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
       <c r="Q64">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16.3</v>
       </c>
@@ -4469,7 +4546,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>16.399999999999999</v>
       </c>
@@ -4494,6 +4571,9 @@
       <c r="I66">
         <v>2</v>
       </c>
+      <c r="K66">
+        <v>0.2</v>
+      </c>
       <c r="M66">
         <v>2</v>
       </c>
@@ -4502,13 +4582,13 @@
       </c>
       <c r="Q66">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>16.5</v>
       </c>
@@ -4544,7 +4624,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>17.100000000000001</v>
       </c>
@@ -4569,21 +4649,21 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="K68" s="8"/>
-      <c r="L68" s="8"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
       <c r="Q68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>17.2</v>
       </c>
@@ -4608,19 +4688,19 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
       <c r="Q69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>17.3</v>
       </c>
@@ -4645,19 +4725,19 @@
       <c r="I70">
         <v>2</v>
       </c>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
       <c r="Q70">
         <f t="shared" ref="Q70:Q80" si="1">SUM(K70:P70)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>17.399999999999999</v>
       </c>
@@ -4682,19 +4762,19 @@
       <c r="I71">
         <v>0.25</v>
       </c>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-      <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
       <c r="Q71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>18.100000000000001</v>
       </c>
@@ -4719,19 +4799,19 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72" s="8"/>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
       <c r="Q72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>18.2</v>
       </c>
@@ -4756,19 +4836,19 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-      <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
       <c r="Q73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>18.3</v>
       </c>
@@ -4793,19 +4873,19 @@
       <c r="I74">
         <v>2</v>
       </c>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-      <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
       <c r="Q74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>18.399999999999999</v>
       </c>
@@ -4830,19 +4910,19 @@
       <c r="I75">
         <v>0.25</v>
       </c>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
       <c r="Q75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>19.100000000000001</v>
       </c>
@@ -4890,7 +4970,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>20.100000000000001</v>
       </c>
@@ -4932,7 +5012,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20.2</v>
       </c>
@@ -4974,7 +5054,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>21.1</v>
       </c>
@@ -5010,7 +5090,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>22.1</v>
       </c>
@@ -5046,7 +5126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>116</v>
       </c>
@@ -5057,11 +5137,11 @@
       </c>
       <c r="K83">
         <f>SUM(K2:K80)</f>
-        <v>17.350000000000001</v>
+        <v>31.75</v>
       </c>
       <c r="L83">
         <f t="shared" ref="L83:Q83" si="2">SUM(L2:L80)</f>
-        <v>28.1</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="M83">
         <f t="shared" si="2"/>
@@ -5069,25 +5149,25 @@
       </c>
       <c r="N83">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O83">
         <f t="shared" si="2"/>
-        <v>14.75</v>
+        <v>21.25</v>
       </c>
       <c r="P83">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q83">
         <f t="shared" si="2"/>
-        <v>107.05</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+        <v>145.35000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:17" x14ac:dyDescent="0.3">
       <c r="D85" s="7"/>
     </row>
   </sheetData>
@@ -5115,6 +5195,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5127,18 +5208,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -5152,7 +5233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5167,7 +5248,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5180,10 +5261,10 @@
       </c>
       <c r="D3">
         <f>180-SUM('Sprint Backlog'!Q6:Q15)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5196,10 +5277,10 @@
       </c>
       <c r="D4">
         <f>D3-SUM('Sprint Backlog'!Q79,'Sprint Backlog'!Q77,'Sprint Backlog'!Q76,'Sprint Backlog'!Q43,'Sprint Backlog'!Q44,'Sprint Backlog'!Q30:Q42,'Sprint Backlog'!Q16:Q24,)</f>
-        <v>94.55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69.349999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
     </row>
   </sheetData>
